--- a/2. Topic Modeling - LDA 24 topics/Coherence_summary_obs.xlsx
+++ b/2. Topic Modeling - LDA 24 topics/Coherence_summary_obs.xlsx
@@ -468,7 +468,7 @@
         <v>0.4328619377993331</v>
       </c>
       <c r="E5">
-        <v>0.55250319789518</v>
+        <v>0.54250319789518</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -485,7 +485,7 @@
         <v>0.4454909228527195</v>
       </c>
       <c r="E6">
-        <v>0.5402465822431883</v>
+        <v>0.5202465822431883</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -502,7 +502,7 @@
         <v>0.3994811813007847</v>
       </c>
       <c r="E7">
-        <v>0.5395188520632059</v>
+        <v>0.5195188520632059</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -519,7 +519,7 @@
         <v>0.3942425003278505</v>
       </c>
       <c r="E8">
-        <v>0.5485773259944335</v>
+        <v>0.5285773259944335</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,7 +536,7 @@
         <v>0.4175910263255461</v>
       </c>
       <c r="E9">
-        <v>0.539707759936223</v>
+        <v>0.519707759936223</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -553,7 +553,7 @@
         <v>0.3650288423409364</v>
       </c>
       <c r="E10">
-        <v>0.5314481388005861</v>
+        <v>0.511448138800586</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -570,7 +570,7 @@
         <v>0.3988537921382367</v>
       </c>
       <c r="E11">
-        <v>0.5244658106491544</v>
+        <v>0.4944658106491544</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -581,13 +581,13 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>0.4700983424864381</v>
+        <v>0.4800983424864381</v>
       </c>
       <c r="D12">
         <v>0.36082925150403</v>
       </c>
       <c r="E12">
-        <v>0.5215562713934279</v>
+        <v>0.5015562713934278</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,13 +598,13 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>0.508731072494448</v>
+        <v>0.5167310724944481</v>
       </c>
       <c r="D13">
         <v>0.3657823525156124</v>
       </c>
       <c r="E13">
-        <v>0.5238346864870811</v>
+        <v>0.5038346864870811</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -621,7 +621,7 @@
         <v>0.3610202147584477</v>
       </c>
       <c r="E14">
-        <v>0.5273970388244085</v>
+        <v>0.5073970388244085</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -638,7 +638,7 @@
         <v>0.3654131928988927</v>
       </c>
       <c r="E15">
-        <v>0.523676088926704</v>
+        <v>0.487676088926704</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -652,10 +652,10 @@
         <v>0.4768313732159492</v>
       </c>
       <c r="D16">
-        <v>0.453411062512673</v>
+        <v>0.4034110625126731</v>
       </c>
       <c r="E16">
-        <v>0.5197907090754756</v>
+        <v>0.4997907090754756</v>
       </c>
     </row>
   </sheetData>
